--- a/src/Config/ControllerNew.xlsx
+++ b/src/Config/ControllerNew.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="2" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4404" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="1051">
   <si>
     <t>TestArea</t>
   </si>
@@ -3828,8 +3828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17569,8 +17569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -17881,7 +17881,7 @@
         <v>290</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>1008</v>
+        <v>642</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>1020</v>

--- a/src/Config/ControllerNew.xlsx
+++ b/src/Config/ControllerNew.xlsx
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4425" uniqueCount="1055">
   <si>
     <t>TestArea</t>
   </si>
@@ -3337,9 +3337,6 @@
     <t>FPT_URL</t>
   </si>
   <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>FPT Onsite - DAT Practice Test</t>
   </si>
   <si>
@@ -3409,7 +3406,22 @@
     <t>GRE</t>
   </si>
   <si>
-    <t>172.16.219.87:3001</t>
+    <t>172.16.218.192:3001</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>FPT CBT - MCAT Practice Test</t>
+  </si>
+  <si>
+    <t>FPTTC008</t>
+  </si>
+  <si>
+    <t>FPT_CBT_MCAT</t>
+  </si>
+  <si>
+    <t>FPT_CBT</t>
   </si>
 </sst>
 </file>
@@ -3829,7 +3841,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,7 +3889,7 @@
         <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3901,7 +3913,7 @@
         <v>180</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="2"/>
@@ -3934,11 +3946,11 @@
         <v>1025</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>1026</v>
+        <v>1050</v>
       </c>
       <c r="C8" s="12" t="str">
         <f>IF(B8="QA","http://qwjasweb02.kaplaninc.com/npt.htm",IF(B8="PROD","http://jasper.kaptest.com/npt.htm",IF(B8="Preview","http://preview.kaptest.int.kaplan.com/index.jhtml")))</f>
-        <v>http://qwjasweb02.kaplaninc.com/npt.htm</v>
+        <v>http://preview.kaptest.int.kaplan.com/index.jhtml</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="5"/>
@@ -4246,7 +4258,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>21</v>
@@ -4334,7 +4346,7 @@
         <v>26</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>33</v>
@@ -4510,7 +4522,7 @@
         <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>49</v>
@@ -17567,10 +17579,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -17647,7 +17659,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D2" s="12" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>1020</v>
@@ -17682,7 +17694,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D3" s="12" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>1020</v>
@@ -17691,7 +17703,7 @@
         <v>1021</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>23</v>
@@ -17712,12 +17724,12 @@
         <v>1020</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D4" s="12" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>1020</v>
@@ -17726,7 +17738,7 @@
         <v>1021</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>23</v>
@@ -17747,12 +17759,12 @@
         <v>1020</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D5" s="12" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1020</v>
@@ -17761,7 +17773,7 @@
         <v>1021</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>23</v>
@@ -17782,12 +17794,12 @@
         <v>1020</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D6" s="12" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1020</v>
@@ -17796,7 +17808,7 @@
         <v>1021</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>23</v>
@@ -17817,12 +17829,12 @@
         <v>1020</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D7" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>1020</v>
@@ -17831,7 +17843,7 @@
         <v>1021</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>23</v>
@@ -17852,12 +17864,12 @@
         <v>1020</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D8" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>1020</v>
@@ -17866,7 +17878,7 @@
         <v>1021</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>23</v>
@@ -17878,22 +17890,57 @@
         <v>30</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>1020</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>1049</v>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D9" s="12" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H9">
       <formula1>"Complete_Regression,Regular_Regression,getQAText"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/Config/ControllerNew.xlsx
+++ b/src/Config/ControllerNew.xlsx
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4425" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4433" uniqueCount="1055">
   <si>
     <t>TestArea</t>
   </si>

--- a/src/Config/ControllerNew.xlsx
+++ b/src/Config/ControllerNew.xlsx
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4433" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="1055">
   <si>
     <t>TestArea</t>
   </si>

--- a/src/Config/ControllerNew.xlsx
+++ b/src/Config/ControllerNew.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19440" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="2" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4700" uniqueCount="1055">
   <si>
     <t>TestArea</t>
   </si>
@@ -3840,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,7 +3935,7 @@
         <v>636</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1020</v>
+        <v>713</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4106,8 +4106,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q300"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4123,7 +4123,7 @@
     <col min="9" max="9" customWidth="true" style="2" width="11.0" collapsed="true"/>
     <col min="10" max="10" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="3" width="4.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="5.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="5.58203125" collapsed="true"/>
     <col min="13" max="13" customWidth="true" style="2" width="12.140625" collapsed="true"/>
     <col min="14" max="15" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
     <col min="16" max="16384" style="2" width="9.140625" collapsed="true"/>
@@ -4223,7 +4223,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>12</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>12</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>12</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>12</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>12</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>12</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>12</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>12</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>12</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>12</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>12</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>12</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>12</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>12</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>12</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>12</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>12</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>12</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>12</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>12</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>12</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>12</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>30</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>26</v>
@@ -6291,7 +6291,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>30</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>26</v>
@@ -6335,7 +6335,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>12</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>30</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>26</v>
@@ -6379,7 +6379,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>12</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>26</v>
@@ -6423,7 +6423,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>30</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>26</v>
@@ -6467,7 +6467,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>30</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>26</v>
@@ -6511,7 +6511,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>30</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>26</v>
@@ -6555,7 +6555,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>26</v>
@@ -6599,7 +6599,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>30</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>26</v>
@@ -6643,7 +6643,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>30</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>26</v>
@@ -6687,7 +6687,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>30</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>26</v>
@@ -6731,7 +6731,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>30</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>26</v>
@@ -6775,7 +6775,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>12</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>30</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>26</v>
@@ -6819,7 +6819,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>30</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>26</v>
@@ -6863,7 +6863,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>12</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>30</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>26</v>
@@ -6907,7 +6907,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>12</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>30</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>26</v>
@@ -6951,7 +6951,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>30</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>26</v>
@@ -6995,7 +6995,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>12</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>30</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>26</v>
@@ -7039,7 +7039,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>12</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>30</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>26</v>
@@ -7083,7 +7083,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>12</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>30</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>26</v>
@@ -7127,7 +7127,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>30</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>26</v>
@@ -7171,7 +7171,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>12</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>30</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>26</v>
@@ -7215,7 +7215,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>12</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>30</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>26</v>
@@ -7259,7 +7259,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>30</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>26</v>
@@ -7303,7 +7303,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>30</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>26</v>
@@ -7347,7 +7347,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>12</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>30</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>26</v>
@@ -7391,7 +7391,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>30</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>26</v>
@@ -7435,7 +7435,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>30</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>26</v>
@@ -7479,7 +7479,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>12</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>30</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>26</v>
@@ -7558,7 +7558,7 @@
         <v>22</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M78" s="12" t="s">
         <v>643</v>
@@ -7602,7 +7602,7 @@
         <v>22</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>1008</v>
+        <v>26</v>
       </c>
       <c r="M79" s="12" t="s">
         <v>643</v>
@@ -7646,7 +7646,7 @@
         <v>22</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>1008</v>
+        <v>26</v>
       </c>
       <c r="M80" s="12" t="s">
         <v>643</v>
@@ -7690,7 +7690,7 @@
         <v>22</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M81" s="12" t="s">
         <v>643</v>
@@ -7734,7 +7734,7 @@
         <v>22</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M82" s="12" t="s">
         <v>643</v>
@@ -7778,7 +7778,7 @@
         <v>22</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>1008</v>
+        <v>26</v>
       </c>
       <c r="M83" s="12" t="s">
         <v>643</v>
@@ -7822,7 +7822,7 @@
         <v>22</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>1008</v>
+        <v>26</v>
       </c>
       <c r="M84" s="12" t="s">
         <v>643</v>
@@ -7866,7 +7866,7 @@
         <v>22</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>1008</v>
+        <v>26</v>
       </c>
       <c r="M85" s="12" t="s">
         <v>643</v>
@@ -7910,7 +7910,7 @@
         <v>22</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M86" s="12" t="s">
         <v>643</v>
@@ -7954,7 +7954,7 @@
         <v>22</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>1008</v>
+        <v>26</v>
       </c>
       <c r="M87" s="12" t="s">
         <v>643</v>
@@ -7998,7 +7998,7 @@
         <v>22</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M88" s="12" t="s">
         <v>643</v>
@@ -8042,7 +8042,7 @@
         <v>22</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M89" s="12" t="s">
         <v>643</v>
@@ -8086,7 +8086,7 @@
         <v>22</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>1008</v>
+        <v>26</v>
       </c>
       <c r="M90" s="12" t="s">
         <v>643</v>
@@ -8130,7 +8130,7 @@
         <v>22</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M91" s="12" t="s">
         <v>643</v>
@@ -8174,7 +8174,7 @@
         <v>22</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M92" s="12" t="s">
         <v>643</v>
@@ -8218,7 +8218,7 @@
         <v>22</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M93" s="12" t="s">
         <v>643</v>
@@ -8262,7 +8262,7 @@
         <v>22</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M94" s="12" t="s">
         <v>643</v>
@@ -8306,7 +8306,7 @@
         <v>22</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M95" s="12" t="s">
         <v>643</v>
@@ -8350,7 +8350,7 @@
         <v>22</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M96" s="12" t="s">
         <v>643</v>
@@ -8394,7 +8394,7 @@
         <v>22</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M97" s="12" t="s">
         <v>643</v>
@@ -8438,7 +8438,7 @@
         <v>22</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M98" s="12" t="s">
         <v>643</v>
@@ -8482,7 +8482,7 @@
         <v>22</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M99" s="12" t="s">
         <v>643</v>
@@ -8526,7 +8526,7 @@
         <v>22</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>1008</v>
+        <v>26</v>
       </c>
       <c r="M100" s="12" t="s">
         <v>643</v>
@@ -8570,7 +8570,7 @@
         <v>22</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M101" s="12" t="s">
         <v>643</v>
@@ -8614,7 +8614,7 @@
         <v>22</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M102" s="12" t="s">
         <v>643</v>
@@ -8658,7 +8658,7 @@
         <v>22</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M103" s="12" t="s">
         <v>643</v>
@@ -8702,7 +8702,7 @@
         <v>22</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>643</v>
@@ -8746,7 +8746,7 @@
         <v>22</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M105" s="12" t="s">
         <v>643</v>
@@ -8790,7 +8790,7 @@
         <v>22</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M106" s="12" t="s">
         <v>643</v>
@@ -8834,7 +8834,7 @@
         <v>22</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M107" s="12" t="s">
         <v>643</v>
@@ -8878,7 +8878,7 @@
         <v>22</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M108" s="12" t="s">
         <v>643</v>
@@ -8922,7 +8922,7 @@
         <v>22</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M109" s="12" t="s">
         <v>643</v>
@@ -8966,7 +8966,7 @@
         <v>22</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M110" s="12" t="s">
         <v>643</v>
@@ -9010,7 +9010,7 @@
         <v>22</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M111" s="12" t="s">
         <v>643</v>
@@ -9054,7 +9054,7 @@
         <v>22</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M112" s="12" t="s">
         <v>643</v>
@@ -9098,7 +9098,7 @@
         <v>22</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>207</v>
@@ -9142,7 +9142,7 @@
         <v>22</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>207</v>
@@ -9186,7 +9186,7 @@
         <v>22</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>207</v>
@@ -9230,7 +9230,7 @@
         <v>22</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>207</v>
@@ -9274,7 +9274,7 @@
         <v>22</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>207</v>
@@ -9318,7 +9318,7 @@
         <v>22</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>207</v>
@@ -9362,7 +9362,7 @@
         <v>22</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>207</v>
@@ -9406,7 +9406,7 @@
         <v>22</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>207</v>
@@ -9450,7 +9450,7 @@
         <v>22</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>207</v>
@@ -9494,7 +9494,7 @@
         <v>22</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>1008</v>
+        <v>26</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>207</v>
@@ -9538,7 +9538,7 @@
         <v>22</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>1008</v>
+        <v>26</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>207</v>
@@ -9582,7 +9582,7 @@
         <v>22</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>207</v>
@@ -9626,7 +9626,7 @@
         <v>22</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>1008</v>
+        <v>26</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>207</v>
@@ -9670,7 +9670,7 @@
         <v>22</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>207</v>
@@ -9714,7 +9714,7 @@
         <v>22</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>207</v>
@@ -9758,7 +9758,7 @@
         <v>22</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>207</v>
@@ -9802,7 +9802,7 @@
         <v>22</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>207</v>
@@ -9846,7 +9846,7 @@
         <v>22</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M130" s="2" t="s">
         <v>207</v>
@@ -9890,7 +9890,7 @@
         <v>22</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>642</v>
+        <v>26</v>
       </c>
       <c r="M131" s="2" t="s">
         <v>207</v>
@@ -9899,7 +9899,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>12</v>
       </c>
@@ -9931,10 +9931,10 @@
         <v>25</v>
       </c>
       <c r="K132" s="13" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>26</v>
+        <v>642</v>
       </c>
       <c r="M132" s="2" t="s">
         <v>113</v>
@@ -9946,7 +9946,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="133" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>12</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="134" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>12</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="135" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
         <v>12</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="136" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
         <v>12</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="137" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
         <v>12</v>
       </c>
@@ -17169,14 +17169,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q300">
-    <filterColumn colId="4">
+    <filterColumn colId="12">
       <filters>
-        <filter val="Suite1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="TestSuite1"/>
+        <filter val="PBT"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -17581,7 +17576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -17598,7 +17593,7 @@
     <col min="9" max="9" customWidth="true" style="12" width="11.0" collapsed="true"/>
     <col min="10" max="10" customWidth="true" style="12" width="28.28515625" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="13" width="4.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="12" width="5.58203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="12" width="5.5703125" collapsed="true"/>
     <col min="13" max="13" customWidth="true" style="12" width="12.140625" collapsed="true"/>
     <col min="14" max="15" customWidth="true" style="12" width="9.85546875" collapsed="true"/>
     <col min="16" max="16384" style="12" width="9.140625" collapsed="true"/>

--- a/src/Config/ControllerNew.xlsx
+++ b/src/Config/ControllerNew.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19440" windowHeight="7725"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19440" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="2" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4700" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4401" uniqueCount="1055">
   <si>
     <t>TestArea</t>
   </si>
@@ -3428,8 +3428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3840,17 +3839,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="55.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4106,27 +4105,27 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q300"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K132" sqref="K132"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="11.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="8.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="11.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="4.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="5.58203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
-    <col min="16" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="4.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="9.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9978,7 +9977,7 @@
         <v>25</v>
       </c>
       <c r="K133" s="13" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="L133" s="14" t="s">
         <v>26</v>
@@ -17199,21 +17198,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="12" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="11.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="26.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="12" width="9.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="12" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="8.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="12" width="11.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="12" width="28.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="13" width="4.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="12" width="5.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="12" width="12.140625" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" style="12" width="9.85546875" collapsed="true"/>
-    <col min="16" max="16384" style="12" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.140625" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.85546875" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" style="12" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8" style="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" style="12" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.28515625" style="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="4.7109375" style="13" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.5703125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.140625" style="12" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="9.85546875" style="12" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="12" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -17415,7 +17414,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -17582,21 +17581,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="12" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="11.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="26.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="12" width="9.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="12" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="8.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="12" width="11.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="12" width="28.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="13" width="4.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="12" width="5.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="12" width="12.140625" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" style="12" width="9.85546875" collapsed="true"/>
-    <col min="16" max="16384" style="12" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.140625" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.85546875" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" style="12" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.85546875" style="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" style="12" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.28515625" style="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="4.7109375" style="13" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.5703125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.140625" style="12" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="9.85546875" style="12" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="12" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/src/Config/ControllerNew.xlsx
+++ b/src/Config/ControllerNew.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\Eclipse\Projects\Work\GRAD.QAAutomation\src\Config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19440" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19440" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="2" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GMAT2013!$A$1:$Q$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MCAT2012!$A$1:$Q$300</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -28,7 +33,7 @@
     <author>Sivaprasanna Vanapalli</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +91,7 @@
     <author>Sivaprasanna Vanapalli</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +149,7 @@
     <author>Sivaprasanna Vanapalli</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +207,7 @@
     <author>Sivaprasanna Vanapalli</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3316,9 +3321,6 @@
     <t>TestSuiteGMAT</t>
   </si>
   <si>
-    <t>QA-External</t>
-  </si>
-  <si>
     <t>FPT</t>
   </si>
   <si>
@@ -3382,9 +3384,6 @@
     <t>TestSuite1_Diag</t>
   </si>
   <si>
-    <t>Hub-Node-Serial</t>
-  </si>
-  <si>
     <t>TestSuite1_FL2</t>
   </si>
   <si>
@@ -3422,6 +3421,12 @@
   </si>
   <si>
     <t>FPT_CBT</t>
+  </si>
+  <si>
+    <t>QA-Internal</t>
+  </si>
+  <si>
+    <t>Standalone</t>
   </si>
 </sst>
 </file>
@@ -3546,6 +3551,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3593,7 +3601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3628,7 +3636,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3839,8 +3847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3874,11 +3882,11 @@
         <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1019</v>
+        <v>1053</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>IF(B2="QA-External","http://jasperqa.kaplan.com/loginv8.aspx",IF(B2="QA-Internal","http://qwjasweb02.kaplaninc.com/loginV8.aspx",IF(B2="Staging","http://swjasweb01.iopsnt.kaplan.com/loginV8.aspx",IF(B2="CMS","http://pwjascms01.kaplaninc.com/loginv8.aspx"))))</f>
-        <v>http://jasperqa.kaplan.com/loginv8.aspx</v>
+        <v>http://qwjasweb02.kaplaninc.com/loginV8.aspx</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3888,7 +3896,7 @@
         <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1041</v>
+        <v>1054</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3912,7 +3920,7 @@
         <v>180</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="2"/>
@@ -3942,10 +3950,10 @@
     </row>
     <row r="8" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C8" s="12" t="str">
         <f>IF(B8="QA","http://qwjasweb02.kaplaninc.com/npt.htm",IF(B8="PROD","http://jasper.kaptest.com/npt.htm",IF(B8="Preview","http://preview.kaptest.int.kaplan.com/index.jhtml")))</f>
@@ -4105,8 +4113,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J133" sqref="J133"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L133" sqref="L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4118,7 +4126,7 @@
     <col min="5" max="5" width="9.42578125" style="2" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="10.5703125" style="2" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="8" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18" style="2" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="11" style="2" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="4.7109375" style="3" customWidth="1" collapsed="1"/>
@@ -4257,7 +4265,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>21</v>
@@ -4345,7 +4353,7 @@
         <v>26</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>33</v>
@@ -4521,7 +4529,7 @@
         <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>49</v>
@@ -9977,7 +9985,7 @@
         <v>25</v>
       </c>
       <c r="K133" s="13" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="L133" s="14" t="s">
         <v>26</v>
@@ -9989,7 +9997,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="134" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>12</v>
       </c>
@@ -10033,7 +10041,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="135" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
         <v>12</v>
       </c>
@@ -10077,7 +10085,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="136" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
         <v>12</v>
       </c>
@@ -10121,7 +10129,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="137" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
         <v>12</v>
       </c>
@@ -17168,9 +17176,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q300">
-    <filterColumn colId="12">
+    <filterColumn colId="10">
       <filters>
-        <filter val="PBT"/>
+        <filter val="Y"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -17653,92 +17661,92 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D2" s="12" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>1021</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>1022</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>1023</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>1020</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D3" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>1027</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>1028</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>1020</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D4" s="12" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>1021</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>30</v>
@@ -17750,30 +17758,30 @@
         <v>26</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D5" s="12" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>1021</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>30</v>
@@ -17785,30 +17793,30 @@
         <v>26</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D6" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>1021</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>30</v>
@@ -17820,30 +17828,30 @@
         <v>26</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D7" s="12" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>1021</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>30</v>
@@ -17855,30 +17863,30 @@
         <v>26</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D8" s="12" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>1021</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>30</v>
@@ -17890,30 +17898,30 @@
         <v>26</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D9" s="12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>1051</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>1053</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>30</v>
@@ -17925,10 +17933,10 @@
         <v>1008</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
   </sheetData>

--- a/src/Config/ControllerNew.xlsx
+++ b/src/Config/ControllerNew.xlsx
@@ -3848,7 +3848,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
